--- a/data/evaluation/evaluation_South_Winter_Radishes.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Radishes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1463.266267164649</v>
+        <v>1476.294998061755</v>
       </c>
       <c r="C4" t="n">
-        <v>3651509.270192947</v>
+        <v>3731041.03661035</v>
       </c>
       <c r="D4" t="n">
-        <v>1910.892270692659</v>
+        <v>1931.590286942433</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09714663892238595</v>
+        <v>0.07748202429069462</v>
       </c>
     </row>
     <row r="5">
